--- a/Code/Results/Cases/Case_4_130/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_130/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.040702045620171</v>
+        <v>1.113874536451132</v>
       </c>
       <c r="D2">
-        <v>1.051589234315983</v>
+        <v>1.105832615565545</v>
       </c>
       <c r="E2">
-        <v>1.057178230946977</v>
+        <v>1.125277436491741</v>
       </c>
       <c r="F2">
-        <v>1.06130466949077</v>
+        <v>1.126879499136655</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.053364593026654</v>
+        <v>1.058108538166369</v>
       </c>
       <c r="J2">
-        <v>1.061729967429982</v>
+        <v>1.118593862180511</v>
       </c>
       <c r="K2">
-        <v>1.062373759386089</v>
+        <v>1.108441313026298</v>
       </c>
       <c r="L2">
-        <v>1.067894564389684</v>
+        <v>1.127838687896806</v>
       </c>
       <c r="M2">
-        <v>1.071971227992033</v>
+        <v>1.129436919884699</v>
       </c>
       <c r="N2">
-        <v>1.063237745765862</v>
+        <v>1.120182393769317</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.05383009601856</v>
+        <v>1.11620840096174</v>
       </c>
       <c r="D3">
-        <v>1.062304445558786</v>
+        <v>1.107721339086861</v>
       </c>
       <c r="E3">
-        <v>1.069709421545817</v>
+        <v>1.12754813917932</v>
       </c>
       <c r="F3">
-        <v>1.073518984260856</v>
+        <v>1.12908485405747</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.05767347059614</v>
+        <v>1.058731178958611</v>
       </c>
       <c r="J3">
-        <v>1.072953615309422</v>
+        <v>1.120595180491884</v>
       </c>
       <c r="K3">
-        <v>1.072197678843893</v>
+        <v>1.110150472990203</v>
       </c>
       <c r="L3">
-        <v>1.079521780390228</v>
+        <v>1.129932466231961</v>
       </c>
       <c r="M3">
-        <v>1.083290269135991</v>
+        <v>1.131465778546646</v>
       </c>
       <c r="N3">
-        <v>1.074477332512662</v>
+        <v>1.122186554182246</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.061928446494206</v>
+        <v>1.117712485000595</v>
       </c>
       <c r="D4">
-        <v>1.0689143763788</v>
+        <v>1.108937660833921</v>
       </c>
       <c r="E4">
-        <v>1.077445618671632</v>
+        <v>1.12901165901159</v>
       </c>
       <c r="F4">
-        <v>1.081059233677552</v>
+        <v>1.130506080822693</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.060313258606607</v>
+        <v>1.059129906966206</v>
       </c>
       <c r="J4">
-        <v>1.079870531801319</v>
+        <v>1.121883890035609</v>
       </c>
       <c r="K4">
-        <v>1.078246561820602</v>
+        <v>1.111250166035696</v>
       </c>
       <c r="L4">
-        <v>1.086691251989593</v>
+        <v>1.131281127188514</v>
       </c>
       <c r="M4">
-        <v>1.09026870638248</v>
+        <v>1.132772410267313</v>
       </c>
       <c r="N4">
-        <v>1.081404071819358</v>
+        <v>1.12347709384134</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.065246716429386</v>
+        <v>1.118343381832988</v>
       </c>
       <c r="D5">
-        <v>1.071622549273836</v>
+        <v>1.10944764063942</v>
       </c>
       <c r="E5">
-        <v>1.080616792640459</v>
+        <v>1.129625573906671</v>
       </c>
       <c r="F5">
-        <v>1.08414997562063</v>
+        <v>1.131102212619316</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.061390382483353</v>
+        <v>1.059296546995498</v>
       </c>
       <c r="J5">
-        <v>1.082703005312424</v>
+        <v>1.122424192183005</v>
       </c>
       <c r="K5">
-        <v>1.080722224518039</v>
+        <v>1.111711008637872</v>
       </c>
       <c r="L5">
-        <v>1.089628054835285</v>
+        <v>1.131846663428919</v>
       </c>
       <c r="M5">
-        <v>1.093126992907658</v>
+        <v>1.133320271256256</v>
       </c>
       <c r="N5">
-        <v>1.084240567767737</v>
+        <v>1.12401816327976</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.065799036463776</v>
+        <v>1.11844922995277</v>
       </c>
       <c r="D6">
-        <v>1.072073300750893</v>
+        <v>1.109533189463159</v>
       </c>
       <c r="E6">
-        <v>1.081144700978143</v>
+        <v>1.129728574807036</v>
       </c>
       <c r="F6">
-        <v>1.084664486992596</v>
+        <v>1.131202227448575</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.061569397955924</v>
+        <v>1.059324469139507</v>
       </c>
       <c r="J6">
-        <v>1.083174361934526</v>
+        <v>1.122514825918564</v>
       </c>
       <c r="K6">
-        <v>1.081134122649478</v>
+        <v>1.111788300823937</v>
       </c>
       <c r="L6">
-        <v>1.090116826159848</v>
+        <v>1.131941535896275</v>
       </c>
       <c r="M6">
-        <v>1.093602680694896</v>
+        <v>1.133412175583094</v>
       </c>
       <c r="N6">
-        <v>1.084712593770308</v>
+        <v>1.124108925725618</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.061973113937597</v>
+        <v>1.117720920606607</v>
       </c>
       <c r="D7">
-        <v>1.068950832423262</v>
+        <v>1.108944480521575</v>
       </c>
       <c r="E7">
-        <v>1.077488301091195</v>
+        <v>1.12901986742671</v>
       </c>
       <c r="F7">
-        <v>1.081100834000747</v>
+        <v>1.130514051632684</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.060327775965588</v>
+        <v>1.059132137474579</v>
       </c>
       <c r="J7">
-        <v>1.079908666827189</v>
+        <v>1.121891115318511</v>
       </c>
       <c r="K7">
-        <v>1.078279898357592</v>
+        <v>1.111256329569958</v>
       </c>
       <c r="L7">
-        <v>1.086730788063819</v>
+        <v>1.131288689529434</v>
       </c>
       <c r="M7">
-        <v>1.090307186521092</v>
+        <v>1.132779736456102</v>
       </c>
       <c r="N7">
-        <v>1.081442261001339</v>
+        <v>1.123484329384973</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.045226419438978</v>
+        <v>1.114664558116862</v>
       </c>
       <c r="D8">
-        <v>1.05528191328696</v>
+        <v>1.106472138668853</v>
       </c>
       <c r="E8">
-        <v>1.061495515235992</v>
+        <v>1.126046047851348</v>
       </c>
       <c r="F8">
-        <v>1.065512829546291</v>
+        <v>1.127626027099338</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.054853382247561</v>
+        <v>1.058319831153681</v>
       </c>
       <c r="J8">
-        <v>1.065599367045679</v>
+        <v>1.11927153586671</v>
       </c>
       <c r="K8">
-        <v>1.065761716761156</v>
+        <v>1.109020241860733</v>
       </c>
       <c r="L8">
-        <v>1.071902264630081</v>
+        <v>1.128547583853082</v>
       </c>
       <c r="M8">
-        <v>1.075872907318669</v>
+        <v>1.130123879900277</v>
       </c>
       <c r="N8">
-        <v>1.067112640372839</v>
+        <v>1.120861029829881</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.012207876247744</v>
+        <v>1.109230640438635</v>
       </c>
       <c r="D9">
-        <v>1.028344788175547</v>
+        <v>1.102069765713245</v>
       </c>
       <c r="E9">
-        <v>1.030023531133197</v>
+        <v>1.120760010326975</v>
       </c>
       <c r="F9">
-        <v>1.034836644514481</v>
+        <v>1.122491150624449</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.043913700496212</v>
+        <v>1.056856056963708</v>
       </c>
       <c r="J9">
-        <v>1.037336787559543</v>
+        <v>1.114606001176216</v>
       </c>
       <c r="K9">
-        <v>1.040994140844527</v>
+        <v>1.105030878626561</v>
       </c>
       <c r="L9">
-        <v>1.042647579246272</v>
+        <v>1.123668808937723</v>
       </c>
       <c r="M9">
-        <v>1.047388720774044</v>
+        <v>1.125395199251742</v>
       </c>
       <c r="N9">
-        <v>1.038809924782071</v>
+        <v>1.116188869544981</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9869853348764274</v>
+        <v>1.105573307500639</v>
       </c>
       <c r="D10">
-        <v>1.007801143543421</v>
+        <v>1.099102224113318</v>
       </c>
       <c r="E10">
-        <v>1.006040950000108</v>
+        <v>1.117203020549829</v>
       </c>
       <c r="F10">
-        <v>1.011463589876846</v>
+        <v>1.119034985360291</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.035470149819564</v>
+        <v>1.055857713252512</v>
       </c>
       <c r="J10">
-        <v>1.015725004149787</v>
+        <v>1.11146035253448</v>
       </c>
       <c r="K10">
-        <v>1.022030960128344</v>
+        <v>1.102336545932492</v>
       </c>
       <c r="L10">
-        <v>1.020301983168014</v>
+        <v>1.120381549045853</v>
       </c>
       <c r="M10">
-        <v>1.025628905094123</v>
+        <v>1.122207976739491</v>
       </c>
       <c r="N10">
-        <v>1.017167450160966</v>
+        <v>1.113038753721363</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9750303410161126</v>
+        <v>1.103980888274898</v>
       </c>
       <c r="D11">
-        <v>0.9980794580629142</v>
+        <v>1.097809093148896</v>
       </c>
       <c r="E11">
-        <v>0.9946929186918038</v>
+        <v>1.115654495283853</v>
       </c>
       <c r="F11">
-        <v>1.000405873350823</v>
+        <v>1.11753014465504</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.031451950656536</v>
+        <v>1.055419921802174</v>
       </c>
       <c r="J11">
-        <v>1.005480087894032</v>
+        <v>1.110089428474395</v>
       </c>
       <c r="K11">
-        <v>1.013037684104005</v>
+        <v>1.101161231770985</v>
       </c>
       <c r="L11">
-        <v>1.009715617617949</v>
+        <v>1.118949422644193</v>
       </c>
       <c r="M11">
-        <v>1.015320139551864</v>
+        <v>1.120819174819638</v>
       </c>
       <c r="N11">
-        <v>1.006907984949019</v>
+        <v>1.111665882791866</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9704020690427111</v>
+        <v>1.103388030287628</v>
       </c>
       <c r="D12">
-        <v>0.9943190185281708</v>
+        <v>1.09732750390683</v>
       </c>
       <c r="E12">
-        <v>0.9903031235165729</v>
+        <v>1.115078010674946</v>
       </c>
       <c r="F12">
-        <v>0.9961288023981381</v>
+        <v>1.116969891725442</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.029894452053118</v>
+        <v>1.055256465797974</v>
       </c>
       <c r="J12">
-        <v>1.00151412361363</v>
+        <v>1.109578839184803</v>
       </c>
       <c r="K12">
-        <v>1.009555872550057</v>
+        <v>1.100723333856075</v>
       </c>
       <c r="L12">
-        <v>1.005618488589385</v>
+        <v>1.118416116397922</v>
       </c>
       <c r="M12">
-        <v>1.011330546162101</v>
+        <v>1.120301963505948</v>
       </c>
       <c r="N12">
-        <v>1.002936388544437</v>
+        <v>1.111154568406918</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9714039761159596</v>
+        <v>1.10351526272908</v>
       </c>
       <c r="D13">
-        <v>0.9951328993034108</v>
+        <v>1.097430864164182</v>
       </c>
       <c r="E13">
-        <v>0.9912532374894211</v>
+        <v>1.115201727800487</v>
       </c>
       <c r="F13">
-        <v>0.9970544971596313</v>
+        <v>1.117090126841067</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.030231686883047</v>
+        <v>1.055291565942046</v>
       </c>
       <c r="J13">
-        <v>1.002372636340605</v>
+        <v>1.109688424821435</v>
       </c>
       <c r="K13">
-        <v>1.010309593550729</v>
+        <v>1.100817325364245</v>
       </c>
       <c r="L13">
-        <v>1.006505347929145</v>
+        <v>1.118530574179111</v>
       </c>
       <c r="M13">
-        <v>1.012194122355811</v>
+        <v>1.12041296874722</v>
       </c>
       <c r="N13">
-        <v>1.003796120457958</v>
+        <v>1.111264309667723</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9746518194617404</v>
+        <v>1.103931910508257</v>
       </c>
       <c r="D14">
-        <v>0.9977718410269087</v>
+        <v>1.097769310803722</v>
       </c>
       <c r="E14">
-        <v>0.9943338264702882</v>
+        <v>1.115606869519956</v>
       </c>
       <c r="F14">
-        <v>1.000055992766447</v>
+        <v>1.117483860491628</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.031324605586304</v>
+        <v>1.055406427712042</v>
       </c>
       <c r="J14">
-        <v>1.005155724398707</v>
+        <v>1.110047251121955</v>
       </c>
       <c r="K14">
-        <v>1.012752924053295</v>
+        <v>1.101125062404573</v>
       </c>
       <c r="L14">
-        <v>1.009380505802519</v>
+        <v>1.118905367174864</v>
       </c>
       <c r="M14">
-        <v>1.014993820697973</v>
+        <v>1.120776449709032</v>
       </c>
       <c r="N14">
-        <v>1.006583160820327</v>
+        <v>1.111623645542748</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9766269120147076</v>
+        <v>1.104188439040421</v>
       </c>
       <c r="D15">
-        <v>0.999377095673646</v>
+        <v>1.097977670523974</v>
       </c>
       <c r="E15">
-        <v>0.9962076831855015</v>
+        <v>1.115856318032017</v>
       </c>
       <c r="F15">
-        <v>1.001881798090364</v>
+        <v>1.11772628085445</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.031989008643386</v>
+        <v>1.055477086001995</v>
       </c>
       <c r="J15">
-        <v>1.006848238743471</v>
+        <v>1.110268153512027</v>
       </c>
       <c r="K15">
-        <v>1.014238775631379</v>
+        <v>1.101314491560009</v>
       </c>
       <c r="L15">
-        <v>1.011129145622124</v>
+        <v>1.119136109300411</v>
       </c>
       <c r="M15">
-        <v>1.016696582715289</v>
+        <v>1.121000222455266</v>
       </c>
       <c r="N15">
-        <v>1.008278078729594</v>
+        <v>1.111844861639551</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9877544325574377</v>
+        <v>1.105678802524778</v>
       </c>
       <c r="D16">
-        <v>1.008426949989351</v>
+        <v>1.099187869853244</v>
       </c>
       <c r="E16">
-        <v>1.006771436472221</v>
+        <v>1.117305612049367</v>
       </c>
       <c r="F16">
-        <v>1.012175437297796</v>
+        <v>1.119134678331946</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.035728365655546</v>
+        <v>1.055886650905861</v>
       </c>
       <c r="J16">
-        <v>1.016384096058913</v>
+        <v>1.111551146713637</v>
       </c>
       <c r="K16">
-        <v>1.022609466362554</v>
+        <v>1.102414362497158</v>
       </c>
       <c r="L16">
-        <v>1.020983175720972</v>
+        <v>1.120476407374747</v>
       </c>
       <c r="M16">
-        <v>1.026292243409737</v>
+        <v>1.122299960023277</v>
       </c>
       <c r="N16">
-        <v>1.017827478056201</v>
+        <v>1.113129676838669</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.994437819044257</v>
+        <v>1.106611288684696</v>
       </c>
       <c r="D17">
-        <v>1.013866941720294</v>
+        <v>1.099944784473394</v>
       </c>
       <c r="E17">
-        <v>1.013121463995908</v>
+        <v>1.118212457156113</v>
       </c>
       <c r="F17">
-        <v>1.018363658726667</v>
+        <v>1.120015878192095</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037970512310534</v>
+        <v>1.056142077190423</v>
       </c>
       <c r="J17">
-        <v>1.022111434561704</v>
+        <v>1.112353540874009</v>
       </c>
       <c r="K17">
-        <v>1.027636124640536</v>
+        <v>1.103101942523685</v>
       </c>
       <c r="L17">
-        <v>1.026903272488497</v>
+        <v>1.121314777689707</v>
       </c>
       <c r="M17">
-        <v>1.032057189507697</v>
+        <v>1.123112890649913</v>
       </c>
       <c r="N17">
-        <v>1.023562950036602</v>
+        <v>1.113933210490784</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9982390298923299</v>
+        <v>1.107154348993155</v>
       </c>
       <c r="D18">
-        <v>1.016962324328351</v>
+        <v>1.100385494540427</v>
       </c>
       <c r="E18">
-        <v>1.016734787124291</v>
+        <v>1.118740604216262</v>
       </c>
       <c r="F18">
-        <v>1.021885073762394</v>
+        <v>1.120529069321992</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.039244234545</v>
+        <v>1.056290533122609</v>
       </c>
       <c r="J18">
-        <v>1.02536873002787</v>
+        <v>1.112820713818354</v>
       </c>
       <c r="K18">
-        <v>1.030494551384728</v>
+        <v>1.10350216403575</v>
       </c>
       <c r="L18">
-        <v>1.030270776036542</v>
+        <v>1.121802946212744</v>
       </c>
       <c r="M18">
-        <v>1.035336440523675</v>
+        <v>1.12358622129175</v>
       </c>
       <c r="N18">
-        <v>1.026824871235946</v>
+        <v>1.114401046874296</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9995195050566333</v>
+        <v>1.107339376871554</v>
       </c>
       <c r="D19">
-        <v>1.018005243227506</v>
+        <v>1.100535633142507</v>
       </c>
       <c r="E19">
-        <v>1.01795224603207</v>
+        <v>1.118920554240663</v>
       </c>
       <c r="F19">
-        <v>1.023071589962517</v>
+        <v>1.120703920148592</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.039673030991688</v>
+        <v>1.056341063303451</v>
       </c>
       <c r="J19">
-        <v>1.026465943734667</v>
+        <v>1.112979864725714</v>
       </c>
       <c r="K19">
-        <v>1.031457338561518</v>
+        <v>1.103638489087532</v>
       </c>
       <c r="L19">
-        <v>1.031405210396892</v>
+        <v>1.12196925802043</v>
       </c>
       <c r="M19">
-        <v>1.036441142723083</v>
+        <v>1.123747473842769</v>
       </c>
       <c r="N19">
-        <v>1.027923643112059</v>
+        <v>1.1145604237942</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9937310007542096</v>
+        <v>1.106511329273046</v>
       </c>
       <c r="D20">
-        <v>1.013291474496887</v>
+        <v>1.099863656196877</v>
       </c>
       <c r="E20">
-        <v>1.012449718475204</v>
+        <v>1.11811524434838</v>
       </c>
       <c r="F20">
-        <v>1.017709012166882</v>
+        <v>1.119921416608205</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037733542954687</v>
+        <v>1.056114727278945</v>
       </c>
       <c r="J20">
-        <v>1.021505739218106</v>
+        <v>1.112267539775851</v>
       </c>
       <c r="K20">
-        <v>1.027104567445245</v>
+        <v>1.103028258027529</v>
       </c>
       <c r="L20">
-        <v>1.026277130958719</v>
+        <v>1.121224915530461</v>
       </c>
       <c r="M20">
-        <v>1.031447456910295</v>
+        <v>1.123025757852127</v>
       </c>
       <c r="N20">
-        <v>1.022956394536141</v>
+        <v>1.113847087261202</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9737009032585058</v>
+        <v>1.103809256101307</v>
       </c>
       <c r="D21">
-        <v>0.9969991050993817</v>
+        <v>1.097669681856342</v>
       </c>
       <c r="E21">
-        <v>0.9934317785812093</v>
+        <v>1.115487601430904</v>
       </c>
       <c r="F21">
-        <v>0.9991770919774738</v>
+        <v>1.1173679516384</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.031004663109736</v>
+        <v>1.055372627107803</v>
       </c>
       <c r="J21">
-        <v>1.004340869357939</v>
+        <v>1.109941623776618</v>
       </c>
       <c r="K21">
-        <v>1.012037554261571</v>
+        <v>1.101034478617045</v>
       </c>
       <c r="L21">
-        <v>1.008538665624781</v>
+        <v>1.118795037594611</v>
       </c>
       <c r="M21">
-        <v>1.014174071392921</v>
+        <v>1.120669451168302</v>
       </c>
       <c r="N21">
-        <v>1.005767148591935</v>
+        <v>1.111517868194465</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9599967580050653</v>
+        <v>1.102102449086377</v>
       </c>
       <c r="D22">
-        <v>0.9858720315030316</v>
+        <v>1.096282918494135</v>
       </c>
       <c r="E22">
-        <v>0.9804413276249356</v>
+        <v>1.113827993300872</v>
       </c>
       <c r="F22">
-        <v>0.9865212205660244</v>
+        <v>1.115755013360227</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.026390100752077</v>
+        <v>1.054901167663099</v>
       </c>
       <c r="J22">
-        <v>0.9925989810235616</v>
+        <v>1.10847129873218</v>
       </c>
       <c r="K22">
-        <v>1.001728659547494</v>
+        <v>1.099773175375917</v>
       </c>
       <c r="L22">
-        <v>0.9964104645224752</v>
+        <v>1.117259441381839</v>
       </c>
       <c r="M22">
-        <v>1.002364508594962</v>
+        <v>1.119180125957864</v>
       </c>
       <c r="N22">
-        <v>0.9940085854293097</v>
+        <v>1.110045455119814</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9673806599074509</v>
+        <v>1.10300802444478</v>
       </c>
       <c r="D23">
-        <v>0.9918651890986013</v>
+        <v>1.097018774465553</v>
       </c>
       <c r="E23">
-        <v>0.9874384746433886</v>
+        <v>1.114708508756625</v>
       </c>
       <c r="F23">
-        <v>0.9933378534672594</v>
+        <v>1.116610784861064</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.028877240589384</v>
+        <v>1.055151563798395</v>
       </c>
       <c r="J23">
-        <v>0.9989252266984792</v>
+        <v>1.109251510781134</v>
       </c>
       <c r="K23">
-        <v>1.007282946266588</v>
+        <v>1.100442560885688</v>
       </c>
       <c r="L23">
-        <v>1.002944264537126</v>
+        <v>1.11807424640718</v>
       </c>
       <c r="M23">
-        <v>1.008726552578808</v>
+        <v>1.119970400150817</v>
       </c>
       <c r="N23">
-        <v>1.000343815098716</v>
+        <v>1.11082677515937</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.99405067923952</v>
+        <v>1.106556499231755</v>
       </c>
       <c r="D24">
-        <v>1.013551741578496</v>
+        <v>1.099900316998425</v>
       </c>
       <c r="E24">
-        <v>1.012753529008059</v>
+        <v>1.11815917310306</v>
       </c>
       <c r="F24">
-        <v>1.018005088846493</v>
+        <v>1.119964102195563</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037840723775565</v>
+        <v>1.056127087163495</v>
       </c>
       <c r="J24">
-        <v>1.021779682527822</v>
+        <v>1.112306402595096</v>
       </c>
       <c r="K24">
-        <v>1.027344980802215</v>
+        <v>1.103061555449985</v>
       </c>
       <c r="L24">
-        <v>1.026560319838736</v>
+        <v>1.12126552296207</v>
       </c>
       <c r="M24">
-        <v>1.031723224423873</v>
+        <v>1.123065132000791</v>
       </c>
       <c r="N24">
-        <v>1.023230726876779</v>
+        <v>1.113886005270109</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.021235445266359</v>
+        <v>1.110641387067258</v>
       </c>
       <c r="D25">
-        <v>1.035706096433279</v>
+        <v>1.103213498532543</v>
       </c>
       <c r="E25">
-        <v>1.038619964947015</v>
+        <v>1.122132225976098</v>
       </c>
       <c r="F25">
-        <v>1.04321549138017</v>
+        <v>1.123824283408434</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.046920171405776</v>
+        <v>1.0572383889495</v>
       </c>
       <c r="J25">
-        <v>1.045068693192133</v>
+        <v>1.115818224764374</v>
       </c>
       <c r="K25">
-        <v>1.047774300842801</v>
+        <v>1.106068220653089</v>
       </c>
       <c r="L25">
-        <v>1.050646941918599</v>
+        <v>1.124936059089412</v>
       </c>
       <c r="M25">
-        <v>1.055178038401004</v>
+        <v>1.126623655305526</v>
       </c>
       <c r="N25">
-        <v>1.04655281060752</v>
+        <v>1.117402814629678</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_130/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_130/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.113874536451132</v>
+        <v>1.040702045620169</v>
       </c>
       <c r="D2">
-        <v>1.105832615565545</v>
+        <v>1.051589234315981</v>
       </c>
       <c r="E2">
-        <v>1.125277436491741</v>
+        <v>1.057178230946976</v>
       </c>
       <c r="F2">
-        <v>1.126879499136655</v>
+        <v>1.061304669490769</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.058108538166369</v>
+        <v>1.053364593026654</v>
       </c>
       <c r="J2">
-        <v>1.118593862180511</v>
+        <v>1.061729967429981</v>
       </c>
       <c r="K2">
-        <v>1.108441313026298</v>
+        <v>1.062373759386088</v>
       </c>
       <c r="L2">
-        <v>1.127838687896806</v>
+        <v>1.067894564389682</v>
       </c>
       <c r="M2">
-        <v>1.129436919884699</v>
+        <v>1.071971227992032</v>
       </c>
       <c r="N2">
-        <v>1.120182393769317</v>
+        <v>1.063237745765861</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.11620840096174</v>
+        <v>1.053830096018555</v>
       </c>
       <c r="D3">
-        <v>1.107721339086861</v>
+        <v>1.062304445558783</v>
       </c>
       <c r="E3">
-        <v>1.12754813917932</v>
+        <v>1.069709421545813</v>
       </c>
       <c r="F3">
-        <v>1.12908485405747</v>
+        <v>1.073518984260852</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.058731178958611</v>
+        <v>1.057673470596139</v>
       </c>
       <c r="J3">
-        <v>1.120595180491884</v>
+        <v>1.072953615309419</v>
       </c>
       <c r="K3">
-        <v>1.110150472990203</v>
+        <v>1.07219767884389</v>
       </c>
       <c r="L3">
-        <v>1.129932466231961</v>
+        <v>1.079521780390223</v>
       </c>
       <c r="M3">
-        <v>1.131465778546646</v>
+        <v>1.083290269135986</v>
       </c>
       <c r="N3">
-        <v>1.122186554182246</v>
+        <v>1.074477332512658</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.117712485000595</v>
+        <v>1.061928446494205</v>
       </c>
       <c r="D4">
-        <v>1.108937660833921</v>
+        <v>1.068914376378799</v>
       </c>
       <c r="E4">
-        <v>1.12901165901159</v>
+        <v>1.077445618671631</v>
       </c>
       <c r="F4">
-        <v>1.130506080822693</v>
+        <v>1.081059233677551</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.059129906966206</v>
+        <v>1.060313258606607</v>
       </c>
       <c r="J4">
-        <v>1.121883890035609</v>
+        <v>1.079870531801318</v>
       </c>
       <c r="K4">
-        <v>1.111250166035696</v>
+        <v>1.078246561820601</v>
       </c>
       <c r="L4">
-        <v>1.131281127188514</v>
+        <v>1.086691251989593</v>
       </c>
       <c r="M4">
-        <v>1.132772410267313</v>
+        <v>1.090268706382479</v>
       </c>
       <c r="N4">
-        <v>1.12347709384134</v>
+        <v>1.081404071819357</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.118343381832988</v>
+        <v>1.065246716429385</v>
       </c>
       <c r="D5">
-        <v>1.10944764063942</v>
+        <v>1.071622549273836</v>
       </c>
       <c r="E5">
-        <v>1.129625573906671</v>
+        <v>1.080616792640458</v>
       </c>
       <c r="F5">
-        <v>1.131102212619316</v>
+        <v>1.084149975620629</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.059296546995498</v>
+        <v>1.061390382483352</v>
       </c>
       <c r="J5">
-        <v>1.122424192183005</v>
+        <v>1.082703005312422</v>
       </c>
       <c r="K5">
-        <v>1.111711008637872</v>
+        <v>1.080722224518038</v>
       </c>
       <c r="L5">
-        <v>1.131846663428919</v>
+        <v>1.089628054835284</v>
       </c>
       <c r="M5">
-        <v>1.133320271256256</v>
+        <v>1.093126992907657</v>
       </c>
       <c r="N5">
-        <v>1.12401816327976</v>
+        <v>1.084240567767737</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.11844922995277</v>
+        <v>1.065799036463776</v>
       </c>
       <c r="D6">
-        <v>1.109533189463159</v>
+        <v>1.072073300750894</v>
       </c>
       <c r="E6">
-        <v>1.129728574807036</v>
+        <v>1.081144700978143</v>
       </c>
       <c r="F6">
-        <v>1.131202227448575</v>
+        <v>1.084664486992597</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.059324469139507</v>
+        <v>1.061569397955924</v>
       </c>
       <c r="J6">
-        <v>1.122514825918564</v>
+        <v>1.083174361934526</v>
       </c>
       <c r="K6">
-        <v>1.111788300823937</v>
+        <v>1.081134122649479</v>
       </c>
       <c r="L6">
-        <v>1.131941535896275</v>
+        <v>1.090116826159849</v>
       </c>
       <c r="M6">
-        <v>1.133412175583094</v>
+        <v>1.093602680694898</v>
       </c>
       <c r="N6">
-        <v>1.124108925725618</v>
+        <v>1.084712593770309</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.117720920606607</v>
+        <v>1.0619731139376</v>
       </c>
       <c r="D7">
-        <v>1.108944480521575</v>
+        <v>1.068950832423264</v>
       </c>
       <c r="E7">
-        <v>1.12901986742671</v>
+        <v>1.077488301091198</v>
       </c>
       <c r="F7">
-        <v>1.130514051632684</v>
+        <v>1.08110083400075</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.059132137474579</v>
+        <v>1.060327775965589</v>
       </c>
       <c r="J7">
-        <v>1.121891115318511</v>
+        <v>1.079908666827192</v>
       </c>
       <c r="K7">
-        <v>1.111256329569958</v>
+        <v>1.078279898357595</v>
       </c>
       <c r="L7">
-        <v>1.131288689529434</v>
+        <v>1.086730788063822</v>
       </c>
       <c r="M7">
-        <v>1.132779736456102</v>
+        <v>1.090307186521094</v>
       </c>
       <c r="N7">
-        <v>1.123484329384973</v>
+        <v>1.081442261001342</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.114664558116862</v>
+        <v>1.045226419438978</v>
       </c>
       <c r="D8">
-        <v>1.106472138668853</v>
+        <v>1.05528191328696</v>
       </c>
       <c r="E8">
-        <v>1.126046047851348</v>
+        <v>1.061495515235992</v>
       </c>
       <c r="F8">
-        <v>1.127626027099338</v>
+        <v>1.06551282954629</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.058319831153681</v>
+        <v>1.054853382247561</v>
       </c>
       <c r="J8">
-        <v>1.11927153586671</v>
+        <v>1.065599367045679</v>
       </c>
       <c r="K8">
-        <v>1.109020241860733</v>
+        <v>1.065761716761155</v>
       </c>
       <c r="L8">
-        <v>1.128547583853082</v>
+        <v>1.071902264630081</v>
       </c>
       <c r="M8">
-        <v>1.130123879900277</v>
+        <v>1.075872907318668</v>
       </c>
       <c r="N8">
-        <v>1.120861029829881</v>
+        <v>1.067112640372839</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C9">
-        <v>1.109230640438635</v>
+        <v>1.012207876247746</v>
       </c>
       <c r="D9">
-        <v>1.102069765713245</v>
+        <v>1.028344788175549</v>
       </c>
       <c r="E9">
-        <v>1.120760010326975</v>
+        <v>1.0300235311332</v>
       </c>
       <c r="F9">
-        <v>1.122491150624449</v>
+        <v>1.034836644514483</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.056856056963708</v>
+        <v>1.043913700496212</v>
       </c>
       <c r="J9">
-        <v>1.114606001176216</v>
+        <v>1.037336787559546</v>
       </c>
       <c r="K9">
-        <v>1.105030878626561</v>
+        <v>1.040994140844529</v>
       </c>
       <c r="L9">
-        <v>1.123668808937723</v>
+        <v>1.042647579246275</v>
       </c>
       <c r="M9">
-        <v>1.125395199251742</v>
+        <v>1.047388720774046</v>
       </c>
       <c r="N9">
-        <v>1.116188869544981</v>
+        <v>1.038809924782073</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.105573307500639</v>
+        <v>0.9869853348764267</v>
       </c>
       <c r="D10">
-        <v>1.099102224113318</v>
+        <v>1.007801143543421</v>
       </c>
       <c r="E10">
-        <v>1.117203020549829</v>
+        <v>1.006040950000107</v>
       </c>
       <c r="F10">
-        <v>1.119034985360291</v>
+        <v>1.011463589876846</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.055857713252512</v>
+        <v>1.035470149819564</v>
       </c>
       <c r="J10">
-        <v>1.11146035253448</v>
+        <v>1.015725004149787</v>
       </c>
       <c r="K10">
-        <v>1.102336545932492</v>
+        <v>1.022030960128344</v>
       </c>
       <c r="L10">
-        <v>1.120381549045853</v>
+        <v>1.020301983168014</v>
       </c>
       <c r="M10">
-        <v>1.122207976739491</v>
+        <v>1.025628905094122</v>
       </c>
       <c r="N10">
-        <v>1.113038753721363</v>
+        <v>1.017167450160966</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.103980888274898</v>
+        <v>0.9750303410161127</v>
       </c>
       <c r="D11">
-        <v>1.097809093148896</v>
+        <v>0.9980794580629142</v>
       </c>
       <c r="E11">
-        <v>1.115654495283853</v>
+        <v>0.9946929186918035</v>
       </c>
       <c r="F11">
-        <v>1.11753014465504</v>
+        <v>1.000405873350823</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.055419921802174</v>
+        <v>1.031451950656536</v>
       </c>
       <c r="J11">
-        <v>1.110089428474395</v>
+        <v>1.005480087894031</v>
       </c>
       <c r="K11">
-        <v>1.101161231770985</v>
+        <v>1.013037684104005</v>
       </c>
       <c r="L11">
-        <v>1.118949422644193</v>
+        <v>1.009715617617949</v>
       </c>
       <c r="M11">
-        <v>1.120819174819638</v>
+        <v>1.015320139551864</v>
       </c>
       <c r="N11">
-        <v>1.111665882791866</v>
+        <v>1.006907984949019</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.103388030287628</v>
+        <v>0.970402069042715</v>
       </c>
       <c r="D12">
-        <v>1.09732750390683</v>
+        <v>0.9943190185281743</v>
       </c>
       <c r="E12">
-        <v>1.115078010674946</v>
+        <v>0.9903031235165763</v>
       </c>
       <c r="F12">
-        <v>1.116969891725442</v>
+        <v>0.9961288023981417</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.055256465797974</v>
+        <v>1.029894452053119</v>
       </c>
       <c r="J12">
-        <v>1.109578839184803</v>
+        <v>1.001514123613634</v>
       </c>
       <c r="K12">
-        <v>1.100723333856075</v>
+        <v>1.00955587255006</v>
       </c>
       <c r="L12">
-        <v>1.118416116397922</v>
+        <v>1.005618488589389</v>
       </c>
       <c r="M12">
-        <v>1.120301963505948</v>
+        <v>1.011330546162104</v>
       </c>
       <c r="N12">
-        <v>1.111154568406918</v>
+        <v>1.002936388544441</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.10351526272908</v>
+        <v>0.9714039761159569</v>
       </c>
       <c r="D13">
-        <v>1.097430864164182</v>
+        <v>0.9951328993034085</v>
       </c>
       <c r="E13">
-        <v>1.115201727800487</v>
+        <v>0.9912532374894183</v>
       </c>
       <c r="F13">
-        <v>1.117090126841067</v>
+        <v>0.997054497159629</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.055291565942046</v>
+        <v>1.030231686883046</v>
       </c>
       <c r="J13">
-        <v>1.109688424821435</v>
+        <v>1.002372636340603</v>
       </c>
       <c r="K13">
-        <v>1.100817325364245</v>
+        <v>1.010309593550727</v>
       </c>
       <c r="L13">
-        <v>1.118530574179111</v>
+        <v>1.006505347929143</v>
       </c>
       <c r="M13">
-        <v>1.12041296874722</v>
+        <v>1.012194122355808</v>
       </c>
       <c r="N13">
-        <v>1.111264309667723</v>
+        <v>1.003796120457955</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.103931910508257</v>
+        <v>0.9746518194617387</v>
       </c>
       <c r="D14">
-        <v>1.097769310803722</v>
+        <v>0.9977718410269074</v>
       </c>
       <c r="E14">
-        <v>1.115606869519956</v>
+        <v>0.994333826470287</v>
       </c>
       <c r="F14">
-        <v>1.117483860491628</v>
+        <v>1.000055992766445</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.055406427712042</v>
+        <v>1.031324605586304</v>
       </c>
       <c r="J14">
-        <v>1.110047251121955</v>
+        <v>1.005155724398706</v>
       </c>
       <c r="K14">
-        <v>1.101125062404573</v>
+        <v>1.012752924053294</v>
       </c>
       <c r="L14">
-        <v>1.118905367174864</v>
+        <v>1.009380505802518</v>
       </c>
       <c r="M14">
-        <v>1.120776449709032</v>
+        <v>1.014993820697972</v>
       </c>
       <c r="N14">
-        <v>1.111623645542748</v>
+        <v>1.006583160820326</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.104188439040421</v>
+        <v>0.9766269120147102</v>
       </c>
       <c r="D15">
-        <v>1.097977670523974</v>
+        <v>0.9993770956736487</v>
       </c>
       <c r="E15">
-        <v>1.115856318032017</v>
+        <v>0.996207683185504</v>
       </c>
       <c r="F15">
-        <v>1.11772628085445</v>
+        <v>1.001881798090367</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.055477086001995</v>
+        <v>1.031989008643388</v>
       </c>
       <c r="J15">
-        <v>1.110268153512027</v>
+        <v>1.006848238743474</v>
       </c>
       <c r="K15">
-        <v>1.101314491560009</v>
+        <v>1.014238775631382</v>
       </c>
       <c r="L15">
-        <v>1.119136109300411</v>
+        <v>1.011129145622127</v>
       </c>
       <c r="M15">
-        <v>1.121000222455266</v>
+        <v>1.016696582715292</v>
       </c>
       <c r="N15">
-        <v>1.111844861639551</v>
+        <v>1.008278078729596</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.105678802524778</v>
+        <v>0.9877544325574387</v>
       </c>
       <c r="D16">
-        <v>1.099187869853244</v>
+        <v>1.008426949989352</v>
       </c>
       <c r="E16">
-        <v>1.117305612049367</v>
+        <v>1.006771436472222</v>
       </c>
       <c r="F16">
-        <v>1.119134678331946</v>
+        <v>1.012175437297797</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.055886650905861</v>
+        <v>1.035728365655547</v>
       </c>
       <c r="J16">
-        <v>1.111551146713637</v>
+        <v>1.016384096058914</v>
       </c>
       <c r="K16">
-        <v>1.102414362497158</v>
+        <v>1.022609466362555</v>
       </c>
       <c r="L16">
-        <v>1.120476407374747</v>
+        <v>1.020983175720973</v>
       </c>
       <c r="M16">
-        <v>1.122299960023277</v>
+        <v>1.026292243409738</v>
       </c>
       <c r="N16">
-        <v>1.113129676838669</v>
+        <v>1.017827478056203</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.106611288684696</v>
+        <v>0.9944378190442551</v>
       </c>
       <c r="D17">
-        <v>1.099944784473394</v>
+        <v>1.013866941720292</v>
       </c>
       <c r="E17">
-        <v>1.118212457156113</v>
+        <v>1.013121463995906</v>
       </c>
       <c r="F17">
-        <v>1.120015878192095</v>
+        <v>1.018363658726665</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.056142077190423</v>
+        <v>1.037970512310534</v>
       </c>
       <c r="J17">
-        <v>1.112353540874009</v>
+        <v>1.022111434561703</v>
       </c>
       <c r="K17">
-        <v>1.103101942523685</v>
+        <v>1.027636124640534</v>
       </c>
       <c r="L17">
-        <v>1.121314777689707</v>
+        <v>1.026903272488495</v>
       </c>
       <c r="M17">
-        <v>1.123112890649913</v>
+        <v>1.032057189507696</v>
       </c>
       <c r="N17">
-        <v>1.113933210490784</v>
+        <v>1.023562950036601</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.107154348993155</v>
+        <v>0.998239029892335</v>
       </c>
       <c r="D18">
-        <v>1.100385494540427</v>
+        <v>1.016962324328355</v>
       </c>
       <c r="E18">
-        <v>1.118740604216262</v>
+        <v>1.016734787124296</v>
       </c>
       <c r="F18">
-        <v>1.120529069321992</v>
+        <v>1.021885073762399</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.056290533122609</v>
+        <v>1.039244234545002</v>
       </c>
       <c r="J18">
-        <v>1.112820713818354</v>
+        <v>1.025368730027874</v>
       </c>
       <c r="K18">
-        <v>1.10350216403575</v>
+        <v>1.030494551384732</v>
       </c>
       <c r="L18">
-        <v>1.121802946212744</v>
+        <v>1.030270776036547</v>
       </c>
       <c r="M18">
-        <v>1.12358622129175</v>
+        <v>1.03533644052368</v>
       </c>
       <c r="N18">
-        <v>1.114401046874296</v>
+        <v>1.026824871235951</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.107339376871554</v>
+        <v>0.9995195050566421</v>
       </c>
       <c r="D19">
-        <v>1.100535633142507</v>
+        <v>1.018005243227514</v>
       </c>
       <c r="E19">
-        <v>1.118920554240663</v>
+        <v>1.017952246032079</v>
       </c>
       <c r="F19">
-        <v>1.120703920148592</v>
+        <v>1.023071589962525</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.056341063303451</v>
+        <v>1.039673030991691</v>
       </c>
       <c r="J19">
-        <v>1.112979864725714</v>
+        <v>1.026465943734675</v>
       </c>
       <c r="K19">
-        <v>1.103638489087532</v>
+        <v>1.031457338561526</v>
       </c>
       <c r="L19">
-        <v>1.12196925802043</v>
+        <v>1.031405210396901</v>
       </c>
       <c r="M19">
-        <v>1.123747473842769</v>
+        <v>1.036441142723092</v>
       </c>
       <c r="N19">
-        <v>1.1145604237942</v>
+        <v>1.027923643112068</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.106511329273046</v>
+        <v>0.9937310007542097</v>
       </c>
       <c r="D20">
-        <v>1.099863656196877</v>
+        <v>1.013291474496887</v>
       </c>
       <c r="E20">
-        <v>1.11811524434838</v>
+        <v>1.012449718475205</v>
       </c>
       <c r="F20">
-        <v>1.119921416608205</v>
+        <v>1.017709012166882</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.056114727278945</v>
+        <v>1.037733542954687</v>
       </c>
       <c r="J20">
-        <v>1.112267539775851</v>
+        <v>1.021505739218106</v>
       </c>
       <c r="K20">
-        <v>1.103028258027529</v>
+        <v>1.027104567445245</v>
       </c>
       <c r="L20">
-        <v>1.121224915530461</v>
+        <v>1.026277130958719</v>
       </c>
       <c r="M20">
-        <v>1.123025757852127</v>
+        <v>1.031447456910295</v>
       </c>
       <c r="N20">
-        <v>1.113847087261202</v>
+        <v>1.022956394536142</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.103809256101307</v>
+        <v>0.9737009032585061</v>
       </c>
       <c r="D21">
-        <v>1.097669681856342</v>
+        <v>0.9969991050993819</v>
       </c>
       <c r="E21">
-        <v>1.115487601430904</v>
+        <v>0.9934317785812103</v>
       </c>
       <c r="F21">
-        <v>1.1173679516384</v>
+        <v>0.9991770919774743</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.055372627107803</v>
+        <v>1.031004663109736</v>
       </c>
       <c r="J21">
-        <v>1.109941623776618</v>
+        <v>1.004340869357939</v>
       </c>
       <c r="K21">
-        <v>1.101034478617045</v>
+        <v>1.012037554261571</v>
       </c>
       <c r="L21">
-        <v>1.118795037594611</v>
+        <v>1.008538665624782</v>
       </c>
       <c r="M21">
-        <v>1.120669451168302</v>
+        <v>1.014174071392921</v>
       </c>
       <c r="N21">
-        <v>1.111517868194465</v>
+        <v>1.005767148591936</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.102102449086377</v>
+        <v>0.9599967580050682</v>
       </c>
       <c r="D22">
-        <v>1.096282918494135</v>
+        <v>0.9858720315030343</v>
       </c>
       <c r="E22">
-        <v>1.113827993300872</v>
+        <v>0.9804413276249385</v>
       </c>
       <c r="F22">
-        <v>1.115755013360227</v>
+        <v>0.9865212205660272</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.054901167663099</v>
+        <v>1.026390100752079</v>
       </c>
       <c r="J22">
-        <v>1.10847129873218</v>
+        <v>0.9925989810235643</v>
       </c>
       <c r="K22">
-        <v>1.099773175375917</v>
+        <v>1.001728659547496</v>
       </c>
       <c r="L22">
-        <v>1.117259441381839</v>
+        <v>0.9964104645224778</v>
       </c>
       <c r="M22">
-        <v>1.119180125957864</v>
+        <v>1.002364508594964</v>
       </c>
       <c r="N22">
-        <v>1.110045455119814</v>
+        <v>0.9940085854293124</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.10300802444478</v>
+        <v>0.9673806599074484</v>
       </c>
       <c r="D23">
-        <v>1.097018774465553</v>
+        <v>0.991865189098599</v>
       </c>
       <c r="E23">
-        <v>1.114708508756625</v>
+        <v>0.9874384746433861</v>
       </c>
       <c r="F23">
-        <v>1.116610784861064</v>
+        <v>0.9933378534672568</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.055151563798395</v>
+        <v>1.028877240589383</v>
       </c>
       <c r="J23">
-        <v>1.109251510781134</v>
+        <v>0.9989252266984768</v>
       </c>
       <c r="K23">
-        <v>1.100442560885688</v>
+        <v>1.007282946266585</v>
       </c>
       <c r="L23">
-        <v>1.11807424640718</v>
+        <v>1.002944264537123</v>
       </c>
       <c r="M23">
-        <v>1.119970400150817</v>
+        <v>1.008726552578805</v>
       </c>
       <c r="N23">
-        <v>1.11082677515937</v>
+        <v>1.000343815098714</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.106556499231755</v>
+        <v>0.994050679239517</v>
       </c>
       <c r="D24">
-        <v>1.099900316998425</v>
+        <v>1.013551741578494</v>
       </c>
       <c r="E24">
-        <v>1.11815917310306</v>
+        <v>1.012753529008056</v>
       </c>
       <c r="F24">
-        <v>1.119964102195563</v>
+        <v>1.01800508884649</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.056127087163495</v>
+        <v>1.037840723775563</v>
       </c>
       <c r="J24">
-        <v>1.112306402595096</v>
+        <v>1.021779682527819</v>
       </c>
       <c r="K24">
-        <v>1.103061555449985</v>
+        <v>1.027344980802213</v>
       </c>
       <c r="L24">
-        <v>1.12126552296207</v>
+        <v>1.026560319838733</v>
       </c>
       <c r="M24">
-        <v>1.123065132000791</v>
+        <v>1.031723224423871</v>
       </c>
       <c r="N24">
-        <v>1.113886005270109</v>
+        <v>1.023230726876776</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.110641387067258</v>
+        <v>1.021235445266359</v>
       </c>
       <c r="D25">
-        <v>1.103213498532543</v>
+        <v>1.035706096433279</v>
       </c>
       <c r="E25">
-        <v>1.122132225976098</v>
+        <v>1.038619964947014</v>
       </c>
       <c r="F25">
-        <v>1.123824283408434</v>
+        <v>1.04321549138017</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.0572383889495</v>
+        <v>1.046920171405776</v>
       </c>
       <c r="J25">
-        <v>1.115818224764374</v>
+        <v>1.045068693192132</v>
       </c>
       <c r="K25">
-        <v>1.106068220653089</v>
+        <v>1.047774300842801</v>
       </c>
       <c r="L25">
-        <v>1.124936059089412</v>
+        <v>1.050646941918599</v>
       </c>
       <c r="M25">
-        <v>1.126623655305526</v>
+        <v>1.055178038401003</v>
       </c>
       <c r="N25">
-        <v>1.117402814629678</v>
+        <v>1.04655281060752</v>
       </c>
     </row>
   </sheetData>
